--- a/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_oil_gas_production_and_exploration.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-3962</v>
+        <v>-1043.181818181818</v>
       </c>
       <c r="H2">
-        <v>-3962</v>
+        <v>-1043.181818181818</v>
       </c>
       <c r="I2">
-        <v>-3722.868675702167</v>
+        <v>-961.0337744215246</v>
       </c>
       <c r="J2">
-        <v>-3722.868675702167</v>
+        <v>-961.0337744215246</v>
       </c>
       <c r="K2">
-        <v>-17.54</v>
+        <v>-20.943</v>
       </c>
       <c r="L2">
-        <v>-3508</v>
+        <v>-951.9545454545456</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.109</v>
+        <v>15.105</v>
       </c>
       <c r="V2">
-        <v>0.1394299287410926</v>
+        <v>0.08832816794339513</v>
       </c>
       <c r="W2">
-        <v>-0.3267965367965368</v>
+        <v>-0.1024952015355086</v>
       </c>
       <c r="X2">
-        <v>0.08431260432605142</v>
+        <v>0.05873265225172074</v>
       </c>
       <c r="Y2">
-        <v>-0.4111091411225882</v>
+        <v>-0.1612278537872294</v>
       </c>
       <c r="Z2">
-        <v>0.0001733660095422543</v>
+        <v>0.0002473669052640273</v>
       </c>
       <c r="AA2">
-        <v>-0.5390345268809467</v>
+        <v>-0.1075159546359904</v>
       </c>
       <c r="AB2">
-        <v>0.08430737932124523</v>
+        <v>0.05872481633742673</v>
       </c>
       <c r="AC2">
-        <v>-0.6233419062021919</v>
+        <v>-0.1662407709734171</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="AE2">
-        <v>0.006716892554171325</v>
+        <v>0.04371518636770249</v>
       </c>
       <c r="AF2">
-        <v>0.006716892554171325</v>
+        <v>0.1327151863677025</v>
       </c>
       <c r="AG2">
-        <v>-4.102283107445829</v>
+        <v>-14.9722848136323</v>
       </c>
       <c r="AH2">
-        <v>0.0002278711221013903</v>
+        <v>0.0007754650042987857</v>
       </c>
       <c r="AI2">
-        <v>0.0001540334387182042</v>
+        <v>0.001400943550563413</v>
       </c>
       <c r="AJ2">
-        <v>-0.1617127439895828</v>
+        <v>-0.0959529867234326</v>
       </c>
       <c r="AK2">
-        <v>-0.1038612717440172</v>
+        <v>-0.1880285623992833</v>
       </c>
       <c r="AL2">
-        <v>0.02</v>
+        <v>0.097</v>
       </c>
       <c r="AM2">
-        <v>-0.891</v>
+        <v>-0.247</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-0.004258780744568858</v>
       </c>
       <c r="AO2">
-        <v>-931</v>
+        <v>-218.3711340206185</v>
       </c>
       <c r="AP2">
-        <v>0.2229138242376694</v>
+        <v>0.7164458232190782</v>
       </c>
       <c r="AQ2">
-        <v>20.89786756453423</v>
+        <v>85.7570850202429</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-1.34</v>
+        <v>-0.803</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,73 +740,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.319</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="V3">
-        <v>0.1345991561181435</v>
+        <v>0.1004296455424275</v>
       </c>
       <c r="W3">
-        <v>-0.1276190476190476</v>
+        <v>-0.06636363636363637</v>
       </c>
       <c r="X3">
-        <v>0.08430453605716792</v>
+        <v>0.05893354543001046</v>
       </c>
       <c r="Y3">
-        <v>-0.2119235836762156</v>
+        <v>-0.1252971817936469</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.1442946648946269</v>
+        <v>-0.06365844973089513</v>
       </c>
       <c r="AB3">
-        <v>0.08430453605716792</v>
+        <v>0.05911620255356766</v>
       </c>
       <c r="AC3">
-        <v>-0.2285992009517948</v>
+        <v>-0.1227746522844628</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.04371518636770249</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.04371518636770249</v>
       </c>
       <c r="AG3">
-        <v>-0.319</v>
+        <v>-0.8912848136322976</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.004673563979306736</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.003430332970283722</v>
       </c>
       <c r="AJ3">
-        <v>-0.1555338859093125</v>
+        <v>-0.1058694579756709</v>
       </c>
       <c r="AK3">
-        <v>-0.02754511700198601</v>
+        <v>-0.07547686598972433</v>
       </c>
       <c r="AL3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.02</v>
+        <v>-0.002</v>
       </c>
       <c r="AN3">
         <v>-0</v>
       </c>
-      <c r="AO3">
-        <v>-76</v>
-      </c>
       <c r="AP3">
-        <v>0.2112582781456954</v>
+        <v>1.207702999501758</v>
       </c>
       <c r="AQ3">
-        <v>-76</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
@@ -817,118 +814,228 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Bahamas Petroleum Company plc (AIM:BPC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Oil/Gas (Production and Exploration)</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>-5.34</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>12.1</v>
+      </c>
+      <c r="V4">
+        <v>0.08551236749116607</v>
+      </c>
+      <c r="W4">
+        <v>-0.1024952015355086</v>
+      </c>
+      <c r="X4">
+        <v>0.05873265225172074</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1612278537872294</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1075159546359904</v>
+      </c>
+      <c r="AB4">
+        <v>0.05872481633742673</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1662407709734171</v>
+      </c>
+      <c r="AD4">
+        <v>0.089</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.089</v>
+      </c>
+      <c r="AG4">
+        <v>-12.011</v>
+      </c>
+      <c r="AH4">
+        <v>0.0006285799038060866</v>
+      </c>
+      <c r="AI4">
+        <v>0.00138437368756708</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.09275691371467845</v>
+      </c>
+      <c r="AK4">
+        <v>-0.2301442832780854</v>
+      </c>
+      <c r="AL4">
+        <v>0.097</v>
+      </c>
+      <c r="AM4">
+        <v>0.027</v>
+      </c>
+      <c r="AN4">
+        <v>-0.01692015209125475</v>
+      </c>
+      <c r="AO4">
+        <v>-54.5360824742268</v>
+      </c>
+      <c r="AP4">
+        <v>2.283460076045627</v>
+      </c>
+      <c r="AQ4">
+        <v>-195.925925925926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Isle of Man</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Petro Matad Limited (DB:HA3)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
-      <c r="G4">
-        <v>-3740</v>
-      </c>
-      <c r="H4">
-        <v>-3740</v>
-      </c>
-      <c r="I4">
-        <v>-3418.868675702167</v>
-      </c>
-      <c r="J4">
-        <v>-3418.868675702167</v>
-      </c>
-      <c r="K4">
-        <v>-16.2</v>
-      </c>
-      <c r="L4">
-        <v>-3240</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>3.79</v>
-      </c>
-      <c r="V4">
-        <v>0.1398523985239852</v>
-      </c>
-      <c r="W4">
-        <v>-0.525974025974026</v>
-      </c>
-      <c r="X4">
-        <v>0.08432067259493491</v>
-      </c>
-      <c r="Y4">
-        <v>-0.6102946985689609</v>
-      </c>
-      <c r="Z4">
-        <v>0.0002731237954542047</v>
-      </c>
-      <c r="AA4">
-        <v>-0.9337743888672665</v>
-      </c>
-      <c r="AB4">
-        <v>0.08431022258532253</v>
-      </c>
-      <c r="AC4">
-        <v>-1.018084611452589</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.006716892554171325</v>
-      </c>
-      <c r="AF4">
-        <v>0.006716892554171325</v>
-      </c>
-      <c r="AG4">
-        <v>-3.783283107445829</v>
-      </c>
-      <c r="AH4">
-        <v>0.0002477943965252524</v>
-      </c>
-      <c r="AI4">
-        <v>0.0002118444674336081</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.1622562526653982</v>
-      </c>
-      <c r="AK4">
-        <v>-0.1355203451038646</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-0.911</v>
-      </c>
-      <c r="AN4">
-        <v>-0</v>
-      </c>
-      <c r="AP4">
-        <v>0.2239556684689415</v>
-      </c>
-      <c r="AQ4">
-        <v>18.77058177826564</v>
+      <c r="G5">
+        <v>-790.9090909090909</v>
+      </c>
+      <c r="H5">
+        <v>-790.9090909090909</v>
+      </c>
+      <c r="I5">
+        <v>-686.3636363636364</v>
+      </c>
+      <c r="J5">
+        <v>-686.3636363636364</v>
+      </c>
+      <c r="K5">
+        <v>-14.8</v>
+      </c>
+      <c r="L5">
+        <v>-672.7272727272727</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2.07</v>
+      </c>
+      <c r="V5">
+        <v>0.1024752475247525</v>
+      </c>
+      <c r="W5">
+        <v>-0.4668769716088328</v>
+      </c>
+      <c r="X5">
+        <v>0.05870157987992347</v>
+      </c>
+      <c r="Y5">
+        <v>-0.5255785514887563</v>
+      </c>
+      <c r="Z5">
+        <v>0.0007882479398065209</v>
+      </c>
+      <c r="AA5">
+        <v>-0.5410247223217485</v>
+      </c>
+      <c r="AB5">
+        <v>0.05870157987992347</v>
+      </c>
+      <c r="AC5">
+        <v>-0.5997263022016719</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-2.07</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.1141753998896856</v>
+      </c>
+      <c r="AK5">
+        <v>-0.1324376199616123</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>-0.272</v>
+      </c>
+      <c r="AN5">
+        <v>-0</v>
+      </c>
+      <c r="AP5">
+        <v>0.1389261744966443</v>
+      </c>
+      <c r="AQ5">
+        <v>55.51470588235293</v>
       </c>
     </row>
   </sheetData>
